--- a/data_year/zb/国民经济核算/投入产出直接消耗系数/化学工业投入产出直接消耗系数.xlsx
+++ b/data_year/zb/国民经济核算/投入产出直接消耗系数/化学工业投入产出直接消耗系数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,316 +558,237 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.796883825843271</v>
+        <v>0.806382654329625</v>
       </c>
       <c r="D2" t="n">
-        <v>0.021117597209299</v>
+        <v>0.02264411653677</v>
       </c>
       <c r="E2" t="n">
-        <v>0.010811961466803</v>
+        <v>0.012482602448503</v>
       </c>
       <c r="F2" t="n">
-        <v>0.026895702904994</v>
+        <v>0.03193173572943</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0609802204994</v>
+        <v>0.06893575903934999</v>
       </c>
       <c r="H2" t="n">
-        <v>0.416431768164167</v>
+        <v>0.410212604318838</v>
       </c>
       <c r="I2" t="n">
-        <v>0.028920792400068</v>
+        <v>0.029505407621077</v>
       </c>
       <c r="J2" t="n">
-        <v>0.203116174156729</v>
+        <v>0.193617345670375</v>
       </c>
       <c r="K2" t="n">
-        <v>0.000333844929298</v>
+        <v>0.000377137894139</v>
       </c>
       <c r="L2" t="n">
-        <v>0.012895029229508</v>
+        <v>0.016291360422216</v>
       </c>
       <c r="M2" t="n">
-        <v>0.021616734718738</v>
+        <v>0.023760545878446</v>
       </c>
       <c r="N2" t="n">
-        <v>0.02607821112742</v>
+        <v>0.026487067980729</v>
       </c>
       <c r="O2" t="n">
-        <v>0.065780755104655</v>
+        <v>0.061173712820156</v>
       </c>
       <c r="P2" t="n">
-        <v>0.039022290840043</v>
+        <v>0.03807139630746</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.048822057032347</v>
+        <v>0.047285262969586</v>
       </c>
       <c r="R2" t="n">
-        <v>0.009498752044394</v>
+        <v>0.009828215762116</v>
       </c>
       <c r="S2" t="n">
-        <v>0.074192870417218</v>
+        <v>0.057104782702488</v>
       </c>
       <c r="T2" t="n">
-        <v>0.028283033572227</v>
+        <v>0.032782783961269</v>
       </c>
       <c r="U2" t="n">
-        <v>0.055909540279479</v>
+        <v>0.052443227878043</v>
       </c>
       <c r="V2" t="n">
-        <v>0.017661273703252</v>
+        <v>0.018950974613425</v>
       </c>
       <c r="W2" t="n">
-        <v>0.013082907397045</v>
+        <v>0.015546115556686</v>
       </c>
       <c r="X2" t="n">
-        <v>0.006889529745879</v>
+        <v>0.008059647473531001</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.014775127213766</v>
+        <v>0.016125542085743</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.806382654329625</v>
+        <v>0.808293061899614</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02264411653677</v>
+        <v>0.00981691801122</v>
       </c>
       <c r="E3" t="n">
-        <v>0.012482602448503</v>
+        <v>0.014795969814545</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03193173572943</v>
+        <v>0.03651278548781</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06893575903934999</v>
+        <v>0.065941601023894</v>
       </c>
       <c r="H3" t="n">
-        <v>0.410212604318838</v>
+        <v>0.432659558312159</v>
       </c>
       <c r="I3" t="n">
-        <v>0.029505407621077</v>
+        <v>0.028919621264361</v>
       </c>
       <c r="J3" t="n">
-        <v>0.193617345670375</v>
+        <v>0.191706938100386</v>
       </c>
       <c r="K3" t="n">
-        <v>0.000377137894139</v>
+        <v>0.001167695980056</v>
       </c>
       <c r="L3" t="n">
-        <v>0.016291360422216</v>
+        <v>0.015671502627135</v>
       </c>
       <c r="M3" t="n">
-        <v>0.023760545878446</v>
+        <v>0.033379525405178</v>
       </c>
       <c r="N3" t="n">
-        <v>0.026487067980729</v>
+        <v>0.012241448691479</v>
       </c>
       <c r="O3" t="n">
-        <v>0.061173712820156</v>
+        <v>0.062510576086755</v>
       </c>
       <c r="P3" t="n">
-        <v>0.03807139630746</v>
+        <v>0.031972366709547</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.047285262969586</v>
+        <v>0.042552562183147</v>
       </c>
       <c r="R3" t="n">
-        <v>0.009828215762116</v>
+        <v>0.014359999641826</v>
       </c>
       <c r="S3" t="n">
-        <v>0.057104782702488</v>
+        <v>0.06487334910258501</v>
       </c>
       <c r="T3" t="n">
-        <v>0.032782783961269</v>
+        <v>0.029380783333729</v>
       </c>
       <c r="U3" t="n">
-        <v>0.052443227878043</v>
+        <v>0.041097591890148</v>
       </c>
       <c r="V3" t="n">
-        <v>0.018950974613425</v>
+        <v>0.01359508908157</v>
       </c>
       <c r="W3" t="n">
-        <v>0.015546115556686</v>
+        <v>0.019090792466535</v>
       </c>
       <c r="X3" t="n">
-        <v>0.008059647473531001</v>
+        <v>0.006157334523019</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.016125542085743</v>
+        <v>0.023302928363304</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.808293061899614</v>
+        <v>0.822955896563924</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00981691801122</v>
+        <v>0.009884334011379</v>
       </c>
       <c r="E4" t="n">
-        <v>0.014795969814545</v>
+        <v>0.017285111874438</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03651278548781</v>
+        <v>0.046944240504427</v>
       </c>
       <c r="G4" t="n">
-        <v>0.065941601023894</v>
+        <v>0.060968669088565</v>
       </c>
       <c r="H4" t="n">
-        <v>0.432659558312159</v>
+        <v>0.417160397561097</v>
       </c>
       <c r="I4" t="n">
-        <v>0.028919621264361</v>
+        <v>0.027985747439793</v>
       </c>
       <c r="J4" t="n">
-        <v>0.191706938100386</v>
+        <v>0.177044103436077</v>
       </c>
       <c r="K4" t="n">
-        <v>0.001167695980056</v>
+        <v>0.00128931950733</v>
       </c>
       <c r="L4" t="n">
-        <v>0.015671502627135</v>
+        <v>0.023622612394825</v>
       </c>
       <c r="M4" t="n">
-        <v>0.033379525405178</v>
+        <v>0.042364165387402</v>
       </c>
       <c r="N4" t="n">
-        <v>0.012241448691479</v>
+        <v>0.014596736860257</v>
       </c>
       <c r="O4" t="n">
-        <v>0.062510576086755</v>
+        <v>0.052698331432266</v>
       </c>
       <c r="P4" t="n">
-        <v>0.031972366709547</v>
+        <v>0.035711915489846</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.042552562183147</v>
+        <v>0.040552803617342</v>
       </c>
       <c r="R4" t="n">
-        <v>0.014359999641826</v>
+        <v>0.017499544708566</v>
       </c>
       <c r="S4" t="n">
-        <v>0.06487334910258501</v>
+        <v>0.052377771417873</v>
       </c>
       <c r="T4" t="n">
-        <v>0.029380783333729</v>
+        <v>0.032015895155442</v>
       </c>
       <c r="U4" t="n">
-        <v>0.041097591890148</v>
+        <v>0.029541380407458</v>
       </c>
       <c r="V4" t="n">
-        <v>0.01359508908157</v>
+        <v>0.013610316130077</v>
       </c>
       <c r="W4" t="n">
-        <v>0.019090792466535</v>
+        <v>0.02219043651187</v>
       </c>
       <c r="X4" t="n">
-        <v>0.006157334523019</v>
+        <v>0.006492658622646</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.023302928363304</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.822955896563924</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.009884334011379</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.017285111874438</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.046944240504427</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.060968669088565</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.417160397561097</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.027985747439793</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.177044103436077</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.00128931950733</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.023622612394825</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.042364165387402</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.014596736860257</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.052698331432266</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.035711915489846</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.040552803617342</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.017499544708566</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.052377771417873</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.032015895155442</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.029541380407458</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.013610316130077</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.02219043651187</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.006492658622646</v>
-      </c>
-      <c r="Y5" t="n">
         <v>0.035207611877102</v>
       </c>
     </row>
